--- a/Master/DEMO/Przechwytywanie Danych/DEMO_04/ScrapedInvoiceOutput.xlsx
+++ b/Master/DEMO/Przechwytywanie Danych/DEMO_04/ScrapedInvoiceOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonidas Petrou\Documents\7Robots ZIP FILES\Robot5_PDFDataScraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudzi\source\repos\UiPath-Demo\UiPath-Demo\Master\DEMO\Przechwytywanie Danych\DEMO_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786D8B14-DD99-49F3-B23F-2922A62F5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE3105B-1264-4DE3-84F2-A3665CEF3F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="5085" windowWidth="34530" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,27 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
   <si>
     <t>Invoice Number</t>
   </si>
   <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Error Message</t>
+    <t>Leenti,5 Debra Point,Esik,960-354-7008,bwabersinke0@dailymail.co.uk</t>
+  </si>
+  <si>
+    <t>Invoice 1.pdf</t>
+  </si>
+  <si>
+    <t>Jaxbean,1 Meadow Ridge Parkway,Futaleufú,286-709-7250,cpetrelluzzi1@thetimes.co.uk</t>
+  </si>
+  <si>
+    <t>Invoice 2.pdf</t>
+  </si>
+  <si>
+    <t>Rhybox,984 Morrow Circle,New Washington,678-956-3614,lwerlock2@cargocollective.com</t>
+  </si>
+  <si>
+    <t>Invoice 3.pdf</t>
+  </si>
+  <si>
+    <t>Dynabox,753 Chinook Drive,Watsa,276-866-5537,mkesey3@time.com</t>
+  </si>
+  <si>
+    <t>Invoice 4.pdf</t>
+  </si>
+  <si>
+    <t>Browsedrive,28 Miller Parkway,Nazaré da Mata,824-105-5939,rwilton4@barnesandnoble.com</t>
+  </si>
+  <si>
+    <t>Invoice 5.pdf</t>
+  </si>
+  <si>
+    <t>Katz,9933 Esker Road,Tembau,790-809-0003,lshorland5@statcounter.com</t>
+  </si>
+  <si>
+    <t>Invoice 6.pdf</t>
+  </si>
+  <si>
+    <t>Miboo,1443 Twin Pines Terrace,Danxi,857-167-8924,shusby6@free.fr</t>
+  </si>
+  <si>
+    <t>Invoice 7.pdf</t>
   </si>
 </sst>
 </file>
@@ -82,11 +124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,231 +437,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="58.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>19070</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45288</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2210</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>15231</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45229</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2969</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11898</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14150</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44937</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>7654</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15036</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2012</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17746</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>8424</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12904</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44884</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>4723</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
